--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4672" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +893,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +986,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1112,10 +1124,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1159,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1205,28 +1217,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1314,10 +1326,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1361,28 +1373,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1407,28 +1419,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1516,10 +1528,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1563,28 +1575,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1609,28 +1621,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1747,10 +1759,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1794,28 +1806,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1840,28 +1852,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1978,10 +1990,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2025,28 +2037,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2071,28 +2083,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2151,10 +2163,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2198,28 +2210,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2244,28 +2256,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2353,10 +2365,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2400,28 +2412,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2446,28 +2458,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2584,10 +2596,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2631,28 +2643,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2677,28 +2689,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2786,10 +2798,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2833,28 +2845,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2879,28 +2891,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2988,10 +3000,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3035,28 +3047,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3081,28 +3093,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3248,10 +3260,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3295,28 +3307,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3341,28 +3353,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3450,10 +3462,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3497,28 +3509,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3543,28 +3555,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3652,10 +3664,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3699,28 +3711,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3745,28 +3757,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3912,10 +3924,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3959,28 +3971,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4005,28 +4017,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4085,10 +4097,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4132,28 +4144,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4178,28 +4190,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4374,10 +4386,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4421,28 +4433,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4467,28 +4479,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4576,10 +4588,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4623,28 +4635,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4669,28 +4681,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4778,10 +4790,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4825,28 +4837,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4871,28 +4883,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4980,10 +4992,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5027,28 +5039,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5073,28 +5085,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5153,10 +5165,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5200,28 +5212,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5246,28 +5258,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5326,10 +5338,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5373,28 +5385,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5419,28 +5431,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5499,10 +5511,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5546,28 +5558,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5592,28 +5604,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5730,10 +5742,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5777,28 +5789,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5823,28 +5835,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5932,10 +5944,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5979,28 +5991,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6025,28 +6037,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6134,10 +6146,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6181,28 +6193,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6227,28 +6239,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6307,10 +6319,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6354,28 +6366,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6400,28 +6412,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6509,10 +6521,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6556,28 +6568,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6602,28 +6614,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6740,10 +6752,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6787,28 +6799,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6833,28 +6845,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6913,10 +6925,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6960,28 +6972,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7006,28 +7018,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7115,10 +7127,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7162,28 +7174,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7208,28 +7220,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7288,10 +7300,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7335,28 +7347,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7381,28 +7393,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7461,10 +7473,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7508,28 +7520,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7554,28 +7566,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7634,10 +7646,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7681,28 +7693,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7727,28 +7739,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7807,10 +7819,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7854,28 +7866,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7900,28 +7912,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7980,10 +7992,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8027,28 +8039,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8073,28 +8085,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8182,10 +8194,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8229,28 +8241,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8275,28 +8287,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8355,10 +8367,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="2" t="s">
+      <c r="J285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8402,28 +8414,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="2">
+      <c r="A287" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="2">
+      <c r="C287" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8448,28 +8460,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="2">
+      <c r="C289" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="2">
+      <c r="D289" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="2">
+      <c r="I289" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8528,10 +8540,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="2" t="s">
+      <c r="J291" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8575,28 +8587,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="2">
+      <c r="A293" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="2">
+      <c r="C293" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8621,28 +8633,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="2">
+      <c r="C295" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="2">
+      <c r="D295" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="2">
+      <c r="I295" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8701,10 +8713,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8748,28 +8760,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8794,28 +8806,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8932,10 +8944,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="2" t="s">
+      <c r="J305" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8979,28 +8991,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="2">
+      <c r="A307" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="2">
+      <c r="C307" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9025,28 +9037,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="2">
+      <c r="C309" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="2">
+      <c r="D309" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="2">
+      <c r="I309" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9105,10 +9117,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9152,28 +9164,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="2">
+      <c r="A313" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="2">
+      <c r="C313" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9198,28 +9210,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="2">
+      <c r="C315" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="2">
+      <c r="D315" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="2">
+      <c r="I315" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9278,10 +9290,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="2" t="s">
+      <c r="J317" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9325,28 +9337,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
+      <c r="A319" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="2">
+      <c r="C319" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9371,28 +9383,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="2">
+      <c r="C321" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="2">
+      <c r="D321" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="2">
+      <c r="I321" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9451,10 +9463,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="2" t="s">
+      <c r="J323" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9498,28 +9510,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="2">
+      <c r="A325" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="2">
+      <c r="C325" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9544,28 +9556,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="2">
+      <c r="C327" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="2">
+      <c r="D327" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="2">
+      <c r="I327" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9624,10 +9636,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="2" t="s">
+      <c r="J329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9671,28 +9683,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="2">
+      <c r="A331" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="2">
+      <c r="C331" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9717,28 +9729,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="2">
+      <c r="C333" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="2">
+      <c r="D333" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="2">
+      <c r="I333" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9797,10 +9809,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="2" t="s">
+      <c r="J335" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9844,28 +9856,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="2">
+      <c r="A337" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="2">
+      <c r="C337" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9890,28 +9902,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="2">
+      <c r="C339" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="2">
+      <c r="D339" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="2">
+      <c r="I339" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9999,10 +10011,10 @@
       <c r="I342">
         <f>((C342-C341)^2+(D342- D341)^2)^.5</f>
       </c>
-      <c r="J342" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K342" s="2" t="s">
+      <c r="J342" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K342" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L342" t="n">
@@ -10046,28 +10058,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="s" s="2">
+      <c r="A344" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B344" t="s" s="2">
+      <c r="B344" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C344" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D344" t="s" s="2">
+      <c r="C344" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D344" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E344" t="s" s="2">
+      <c r="E344" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F344" t="s" s="2">
+      <c r="F344" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G344" t="s" s="2">
+      <c r="G344" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H344" t="s" s="2">
+      <c r="H344" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10092,28 +10104,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C346" t="s" s="2">
+      <c r="C346" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D346" t="s" s="2">
+      <c r="D346" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I346" t="s" s="2">
+      <c r="I346" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10201,10 +10213,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="2" t="s">
+      <c r="J349" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10248,28 +10260,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="2">
+      <c r="A351" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="2">
+      <c r="C351" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10294,28 +10306,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="2">
+      <c r="B353" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="2">
+      <c r="C353" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="2">
+      <c r="D353" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="2">
+      <c r="E353" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="2">
+      <c r="F353" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="2">
+      <c r="G353" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="2">
+      <c r="H353" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="2">
+      <c r="I353" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10374,10 +10386,10 @@
       <c r="I355">
         <f>((C355-C354)^2+(D355- D354)^2)^.5</f>
       </c>
-      <c r="J355" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K355" s="2" t="s">
+      <c r="J355" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K355" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L355" t="n">
@@ -10421,28 +10433,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="s" s="2">
+      <c r="A357" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C357" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D357" t="s" s="2">
+      <c r="C357" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10467,28 +10479,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="B359" t="s" s="2">
+      <c r="B359" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C359" t="s" s="2">
+      <c r="C359" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D359" t="s" s="2">
+      <c r="D359" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E359" t="s" s="2">
+      <c r="E359" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F359" t="s" s="2">
+      <c r="F359" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G359" t="s" s="2">
+      <c r="G359" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H359" t="s" s="2">
+      <c r="H359" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I359" t="s" s="2">
+      <c r="I359" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10547,10 +10559,10 @@
       <c r="I361">
         <f>((C361-C360)^2+(D361- D360)^2)^.5</f>
       </c>
-      <c r="J361" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K361" s="2" t="s">
+      <c r="J361" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K361" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L361" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4672" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12288" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -460,10 +508,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="J11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -507,28 +555,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="4">
+      <c r="A13" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="4">
+      <c r="B13" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="4">
+      <c r="C13" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="4">
+      <c r="E13" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="4">
+      <c r="F13" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="4">
+      <c r="G13" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="4">
+      <c r="H13" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -553,28 +601,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="4">
+      <c r="B15" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="4">
+      <c r="C15" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="4">
+      <c r="D15" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="4">
+      <c r="E15" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="4">
+      <c r="F15" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="4">
+      <c r="G15" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="4">
+      <c r="H15" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="4">
+      <c r="I15" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -691,10 +739,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="J19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -738,28 +786,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="4">
+      <c r="A21" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="4">
+      <c r="B21" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="4">
+      <c r="C21" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="4">
+      <c r="E21" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="4">
+      <c r="F21" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="4">
+      <c r="G21" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="4">
+      <c r="H21" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -784,28 +832,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="4">
+      <c r="B23" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="4">
+      <c r="C23" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="4">
+      <c r="D23" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="4">
+      <c r="E23" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="4">
+      <c r="F23" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="4">
+      <c r="G23" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="4">
+      <c r="H23" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="4">
+      <c r="I23" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -893,10 +941,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="4" t="s">
+      <c r="J26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -940,28 +988,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="4">
+      <c r="A28" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="4">
+      <c r="B28" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="4">
+      <c r="C28" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="4">
+      <c r="E28" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="4">
+      <c r="F28" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="4">
+      <c r="G28" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="4">
+      <c r="H28" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -986,28 +1034,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="4">
+      <c r="B30" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="4">
+      <c r="C30" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="4">
+      <c r="D30" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="4">
+      <c r="E30" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="4">
+      <c r="F30" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="4">
+      <c r="G30" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="4">
+      <c r="H30" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="4">
+      <c r="I30" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1124,10 +1172,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="4" t="s">
+      <c r="J34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1171,28 +1219,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="4">
+      <c r="A36" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="4">
+      <c r="B36" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="4">
+      <c r="C36" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="4">
+      <c r="E36" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="4">
+      <c r="F36" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="4">
+      <c r="G36" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="4">
+      <c r="H36" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1217,28 +1265,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="4">
+      <c r="B38" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="4">
+      <c r="C38" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="4">
+      <c r="D38" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="4">
+      <c r="E38" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="4">
+      <c r="F38" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="4">
+      <c r="G38" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="4">
+      <c r="H38" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="4">
+      <c r="I38" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1326,10 +1374,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="4" t="s">
+      <c r="J41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1373,28 +1421,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="4">
+      <c r="A43" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="4">
+      <c r="B43" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="4">
+      <c r="C43" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="4">
+      <c r="E43" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="4">
+      <c r="F43" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="4">
+      <c r="G43" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="4">
+      <c r="H43" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1419,28 +1467,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="4">
+      <c r="B45" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="4">
+      <c r="C45" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="4">
+      <c r="D45" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="4">
+      <c r="E45" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="4">
+      <c r="F45" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="4">
+      <c r="G45" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="4">
+      <c r="H45" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="4">
+      <c r="I45" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1528,10 +1576,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="4" t="s">
+      <c r="J48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1575,28 +1623,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="4">
+      <c r="A50" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="4">
+      <c r="C50" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="4">
+      <c r="G50" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="4">
+      <c r="H50" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1621,28 +1669,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="4">
+      <c r="B52" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="4">
+      <c r="C52" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="4">
+      <c r="D52" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="4">
+      <c r="E52" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="4">
+      <c r="F52" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="4">
+      <c r="G52" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="4">
+      <c r="H52" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="4">
+      <c r="I52" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1759,10 +1807,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="4" t="s">
+      <c r="J56" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1806,28 +1854,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="4">
+      <c r="A58" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="4">
+      <c r="B58" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="4">
+      <c r="C58" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="4">
+      <c r="E58" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="4">
+      <c r="F58" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="4">
+      <c r="G58" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="4">
+      <c r="H58" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1852,28 +1900,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="4">
+      <c r="B60" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="4">
+      <c r="C60" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="4">
+      <c r="D60" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="4">
+      <c r="E60" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="4">
+      <c r="F60" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="4">
+      <c r="G60" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="4">
+      <c r="H60" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="4">
+      <c r="I60" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1990,10 +2038,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="4" t="s">
+      <c r="J64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2037,28 +2085,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="4">
+      <c r="A66" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="4">
+      <c r="B66" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="4">
+      <c r="C66" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="4">
+      <c r="E66" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="4">
+      <c r="F66" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="4">
+      <c r="G66" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="4">
+      <c r="H66" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2083,28 +2131,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="4">
+      <c r="C68" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="4">
+      <c r="D68" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="4">
+      <c r="E68" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="4">
+      <c r="F68" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="4">
+      <c r="G68" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="4">
+      <c r="H68" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="4">
+      <c r="I68" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2163,10 +2211,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="4" t="s">
+      <c r="J70" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2210,28 +2258,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="4">
+      <c r="A72" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="4">
+      <c r="B72" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="4">
+      <c r="C72" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="4">
+      <c r="E72" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="4">
+      <c r="F72" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="4">
+      <c r="G72" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="4">
+      <c r="H72" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2256,28 +2304,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="4">
+      <c r="B74" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="4">
+      <c r="C74" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="4">
+      <c r="D74" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="4">
+      <c r="E74" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="4">
+      <c r="F74" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="4">
+      <c r="G74" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="4">
+      <c r="H74" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="4">
+      <c r="I74" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2365,10 +2413,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="4" t="s">
+      <c r="J77" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2412,28 +2460,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="4">
+      <c r="A79" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="4">
+      <c r="B79" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="4">
+      <c r="C79" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="4">
+      <c r="E79" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="4">
+      <c r="F79" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="4">
+      <c r="G79" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="4">
+      <c r="H79" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2458,28 +2506,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="4">
+      <c r="B81" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="4">
+      <c r="C81" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="4">
+      <c r="D81" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="4">
+      <c r="E81" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="4">
+      <c r="F81" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="4">
+      <c r="G81" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="4">
+      <c r="H81" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="4">
+      <c r="I81" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2596,10 +2644,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="4" t="s">
+      <c r="J85" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2643,28 +2691,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="4">
+      <c r="A87" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="4">
+      <c r="B87" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="4">
+      <c r="C87" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="4">
+      <c r="E87" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="4">
+      <c r="F87" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="4">
+      <c r="G87" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="4">
+      <c r="H87" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2689,28 +2737,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="4">
+      <c r="C89" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="4">
+      <c r="D89" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="4">
+      <c r="I89" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2798,10 +2846,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="4" t="s">
+      <c r="J92" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2845,28 +2893,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="4">
+      <c r="A94" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="4">
+      <c r="B94" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="4">
+      <c r="C94" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="4">
+      <c r="E94" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="4">
+      <c r="F94" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="4">
+      <c r="G94" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="4">
+      <c r="H94" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2891,28 +2939,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="4">
+      <c r="C96" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="4">
+      <c r="D96" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="4">
+      <c r="E96" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="4">
+      <c r="F96" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="4">
+      <c r="G96" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="4">
+      <c r="H96" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="4">
+      <c r="I96" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3000,10 +3048,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="4" t="s">
+      <c r="J99" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3047,28 +3095,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="4">
+      <c r="A101" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="4">
+      <c r="B101" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="4">
+      <c r="C101" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="4">
+      <c r="E101" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="4">
+      <c r="F101" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="4">
+      <c r="G101" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="4">
+      <c r="H101" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3093,28 +3141,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="4">
+      <c r="B103" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="4">
+      <c r="C103" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="4">
+      <c r="D103" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="4">
+      <c r="E103" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="4">
+      <c r="F103" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="4">
+      <c r="G103" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="4">
+      <c r="H103" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="4">
+      <c r="I103" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3260,10 +3308,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="4" t="s">
+      <c r="J108" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3307,28 +3355,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="4">
+      <c r="A110" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="4">
+      <c r="C110" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="4">
+      <c r="E110" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="4">
+      <c r="F110" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="4">
+      <c r="G110" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="4">
+      <c r="H110" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3353,28 +3401,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="4">
+      <c r="B112" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="4">
+      <c r="C112" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="4">
+      <c r="D112" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="4">
+      <c r="E112" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="4">
+      <c r="F112" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="4">
+      <c r="G112" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="4">
+      <c r="H112" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="4">
+      <c r="I112" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3462,10 +3510,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="4" t="s">
+      <c r="J115" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3509,28 +3557,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="4">
+      <c r="A117" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="4">
+      <c r="B117" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="4">
+      <c r="C117" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="4">
+      <c r="E117" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="4">
+      <c r="F117" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="4">
+      <c r="G117" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="4">
+      <c r="H117" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3555,28 +3603,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="4">
+      <c r="C119" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="4">
+      <c r="D119" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="4">
+      <c r="G119" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="4">
+      <c r="I119" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3664,10 +3712,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="4" t="s">
+      <c r="J122" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3711,28 +3759,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="4">
+      <c r="A124" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="4">
+      <c r="B124" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="4">
+      <c r="C124" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="4">
+      <c r="E124" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="4">
+      <c r="F124" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="4">
+      <c r="G124" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="4">
+      <c r="H124" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3757,28 +3805,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="4">
+      <c r="C126" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="4">
+      <c r="D126" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="4">
+      <c r="E126" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="4">
+      <c r="F126" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="4">
+      <c r="G126" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="4">
+      <c r="H126" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="4">
+      <c r="I126" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3924,10 +3972,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="4" t="s">
+      <c r="J131" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3971,28 +4019,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="4">
+      <c r="A133" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="4">
+      <c r="B133" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="4">
+      <c r="C133" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="4">
+      <c r="E133" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="4">
+      <c r="F133" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="4">
+      <c r="G133" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="4">
+      <c r="H133" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4017,28 +4065,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="4">
+      <c r="B135" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="4">
+      <c r="C135" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="4">
+      <c r="D135" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="4">
+      <c r="E135" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="4">
+      <c r="F135" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="4">
+      <c r="G135" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="4">
+      <c r="H135" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="4">
+      <c r="I135" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4097,10 +4145,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="4" t="s">
+      <c r="J137" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4144,28 +4192,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="4">
+      <c r="A139" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="4">
+      <c r="B139" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="4">
+      <c r="C139" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="4">
+      <c r="E139" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="4">
+      <c r="F139" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="4">
+      <c r="G139" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="4">
+      <c r="H139" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4190,28 +4238,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="4">
+      <c r="B141" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="4">
+      <c r="C141" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="4">
+      <c r="D141" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="4">
+      <c r="E141" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="4">
+      <c r="F141" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="4">
+      <c r="G141" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="4">
+      <c r="H141" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="4">
+      <c r="I141" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4386,10 +4434,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="4" t="s">
+      <c r="J147" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4433,28 +4481,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="4">
+      <c r="A149" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="4">
+      <c r="B149" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="4">
+      <c r="C149" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="4">
+      <c r="E149" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="4">
+      <c r="F149" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="4">
+      <c r="G149" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="4">
+      <c r="H149" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4479,28 +4527,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="4">
+      <c r="B151" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="4">
+      <c r="C151" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="4">
+      <c r="D151" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="4">
+      <c r="E151" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="4">
+      <c r="F151" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="4">
+      <c r="G151" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="4">
+      <c r="H151" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="4">
+      <c r="I151" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4588,10 +4636,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="4" t="s">
+      <c r="J154" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4635,28 +4683,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="4">
+      <c r="A156" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="4">
+      <c r="B156" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="4">
+      <c r="C156" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="4">
+      <c r="E156" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="4">
+      <c r="F156" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="4">
+      <c r="G156" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="4">
+      <c r="H156" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4681,28 +4729,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="4">
+      <c r="C158" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="4">
+      <c r="D158" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="4">
+      <c r="I158" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4790,10 +4838,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="4" t="s">
+      <c r="J161" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4837,28 +4885,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="4">
+      <c r="A163" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="4">
+      <c r="B163" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="4">
+      <c r="C163" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="4">
+      <c r="E163" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="4">
+      <c r="F163" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="4">
+      <c r="G163" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="4">
+      <c r="H163" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4883,28 +4931,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="4">
+      <c r="B165" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="4">
+      <c r="C165" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="4">
+      <c r="D165" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="4">
+      <c r="E165" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="4">
+      <c r="F165" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="4">
+      <c r="G165" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="4">
+      <c r="H165" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="4">
+      <c r="I165" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4992,10 +5040,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="4" t="s">
+      <c r="J168" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5039,28 +5087,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="4">
+      <c r="A170" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="4">
+      <c r="C170" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5085,28 +5133,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="4">
+      <c r="C172" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="4">
+      <c r="D172" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="4">
+      <c r="I172" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5165,10 +5213,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="4" t="s">
+      <c r="J174" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5212,28 +5260,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="4">
+      <c r="A176" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="4">
+      <c r="C176" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="4">
+      <c r="G176" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="4">
+      <c r="H176" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5258,28 +5306,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="4">
+      <c r="C178" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="4">
+      <c r="D178" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="4">
+      <c r="I178" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5338,10 +5386,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="4" t="s">
+      <c r="J180" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5385,28 +5433,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="4">
+      <c r="A182" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="4">
+      <c r="B182" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="4">
+      <c r="C182" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="4">
+      <c r="E182" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="4">
+      <c r="F182" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="4">
+      <c r="G182" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="4">
+      <c r="H182" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5431,28 +5479,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="4">
+      <c r="C184" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="4">
+      <c r="D184" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="4">
+      <c r="E184" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="4">
+      <c r="F184" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="4">
+      <c r="G184" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="4">
+      <c r="H184" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="4">
+      <c r="I184" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5511,10 +5559,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="4" t="s">
+      <c r="J186" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5558,28 +5606,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="4">
+      <c r="A188" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="4">
+      <c r="B188" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="4">
+      <c r="C188" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="4">
+      <c r="E188" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="4">
+      <c r="F188" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="4">
+      <c r="G188" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="4">
+      <c r="H188" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5604,28 +5652,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="4">
+      <c r="B190" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="4">
+      <c r="C190" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="4">
+      <c r="D190" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="4">
+      <c r="E190" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="4">
+      <c r="F190" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="4">
+      <c r="G190" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="4">
+      <c r="H190" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="4">
+      <c r="I190" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5742,10 +5790,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="4" t="s">
+      <c r="J194" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5789,28 +5837,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="4">
+      <c r="A196" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="4">
+      <c r="B196" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="4">
+      <c r="C196" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="4">
+      <c r="E196" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="4">
+      <c r="F196" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="4">
+      <c r="G196" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="4">
+      <c r="H196" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5835,28 +5883,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="4">
+      <c r="B198" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="4">
+      <c r="C198" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="4">
+      <c r="D198" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="4">
+      <c r="E198" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="4">
+      <c r="F198" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="4">
+      <c r="G198" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="4">
+      <c r="H198" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="4">
+      <c r="I198" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5944,10 +5992,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="4" t="s">
+      <c r="J201" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5991,28 +6039,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="4">
+      <c r="A203" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="4">
+      <c r="B203" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="4">
+      <c r="C203" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="4">
+      <c r="E203" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="4">
+      <c r="F203" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="4">
+      <c r="G203" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="4">
+      <c r="H203" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6037,28 +6085,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="4">
+      <c r="B205" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="4">
+      <c r="C205" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="4">
+      <c r="D205" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="4">
+      <c r="E205" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="4">
+      <c r="F205" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="4">
+      <c r="G205" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="4">
+      <c r="H205" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="4">
+      <c r="I205" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6146,10 +6194,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="4" t="s">
+      <c r="J208" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6193,28 +6241,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="4">
+      <c r="A210" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="4">
+      <c r="B210" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="4">
+      <c r="C210" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="4">
+      <c r="E210" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="4">
+      <c r="F210" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="4">
+      <c r="G210" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="4">
+      <c r="H210" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6239,28 +6287,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="4">
+      <c r="C212" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="4">
+      <c r="D212" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="4">
+      <c r="E212" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="4">
+      <c r="F212" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="4">
+      <c r="G212" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="4">
+      <c r="H212" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="4">
+      <c r="I212" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6319,10 +6367,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="4" t="s">
+      <c r="J214" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6366,28 +6414,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="4">
+      <c r="A216" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="4">
+      <c r="B216" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="4">
+      <c r="C216" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="4">
+      <c r="E216" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="4">
+      <c r="F216" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="4">
+      <c r="G216" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="4">
+      <c r="H216" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6412,28 +6460,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="4">
+      <c r="B218" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="4">
+      <c r="C218" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="4">
+      <c r="D218" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="4">
+      <c r="E218" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="4">
+      <c r="F218" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="4">
+      <c r="G218" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="4">
+      <c r="H218" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="4">
+      <c r="I218" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6521,10 +6569,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="4" t="s">
+      <c r="J221" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6568,28 +6616,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="4">
+      <c r="A223" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="4">
+      <c r="B223" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="4">
+      <c r="C223" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="4">
+      <c r="E223" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="4">
+      <c r="F223" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="4">
+      <c r="G223" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="4">
+      <c r="H223" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6614,28 +6662,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="4">
+      <c r="B225" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="4">
+      <c r="C225" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="4">
+      <c r="D225" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="4">
+      <c r="E225" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="4">
+      <c r="F225" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="4">
+      <c r="G225" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="4">
+      <c r="H225" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="4">
+      <c r="I225" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6752,10 +6800,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="4" t="s">
+      <c r="J229" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6799,28 +6847,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="4">
+      <c r="A231" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="4">
+      <c r="B231" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="4">
+      <c r="C231" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="4">
+      <c r="E231" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="4">
+      <c r="F231" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="4">
+      <c r="G231" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="4">
+      <c r="H231" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6845,28 +6893,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="4">
+      <c r="B233" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="4">
+      <c r="C233" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="4">
+      <c r="D233" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="4">
+      <c r="E233" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="4">
+      <c r="F233" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="4">
+      <c r="G233" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="4">
+      <c r="H233" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="4">
+      <c r="I233" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6925,10 +6973,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="4" t="s">
+      <c r="J235" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6972,28 +7020,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="4">
+      <c r="A237" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="4">
+      <c r="B237" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="4">
+      <c r="C237" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="4">
+      <c r="E237" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="4">
+      <c r="F237" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="4">
+      <c r="G237" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="4">
+      <c r="H237" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7018,28 +7066,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="4">
+      <c r="B239" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="4">
+      <c r="C239" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="4">
+      <c r="D239" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="4">
+      <c r="E239" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="4">
+      <c r="F239" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="4">
+      <c r="G239" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="4">
+      <c r="H239" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="4">
+      <c r="I239" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7127,10 +7175,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="4" t="s">
+      <c r="J242" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7174,28 +7222,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="4">
+      <c r="A244" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="4">
+      <c r="B244" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="4">
+      <c r="C244" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="4">
+      <c r="E244" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="4">
+      <c r="F244" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="4">
+      <c r="G244" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="4">
+      <c r="H244" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7220,28 +7268,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="4">
+      <c r="B246" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="4">
+      <c r="C246" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="4">
+      <c r="D246" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="4">
+      <c r="E246" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="4">
+      <c r="F246" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="4">
+      <c r="G246" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="4">
+      <c r="H246" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="4">
+      <c r="I246" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7300,10 +7348,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="4" t="s">
+      <c r="J248" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7347,28 +7395,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="4">
+      <c r="A250" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="4">
+      <c r="B250" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="4">
+      <c r="C250" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="4">
+      <c r="E250" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="4">
+      <c r="F250" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="4">
+      <c r="G250" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="4">
+      <c r="H250" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7393,28 +7441,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="4">
+      <c r="B252" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="4">
+      <c r="C252" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="4">
+      <c r="D252" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="4">
+      <c r="E252" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="4">
+      <c r="F252" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="4">
+      <c r="G252" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="4">
+      <c r="H252" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="4">
+      <c r="I252" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7473,10 +7521,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="4" t="s">
+      <c r="J254" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7520,28 +7568,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="4">
+      <c r="A256" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="4">
+      <c r="B256" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="4">
+      <c r="C256" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="4">
+      <c r="E256" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="4">
+      <c r="F256" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="4">
+      <c r="G256" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="4">
+      <c r="H256" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7566,28 +7614,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="4">
+      <c r="B258" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="4">
+      <c r="C258" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="4">
+      <c r="D258" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="4">
+      <c r="E258" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="4">
+      <c r="F258" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="4">
+      <c r="G258" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="4">
+      <c r="H258" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="4">
+      <c r="I258" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7646,10 +7694,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="4" t="s">
+      <c r="J260" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7693,28 +7741,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="4">
+      <c r="A262" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="4">
+      <c r="B262" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="4">
+      <c r="C262" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="4">
+      <c r="E262" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="4">
+      <c r="F262" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="4">
+      <c r="G262" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="4">
+      <c r="H262" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7739,28 +7787,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="4">
+      <c r="B264" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="4">
+      <c r="C264" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="4">
+      <c r="D264" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="4">
+      <c r="E264" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="4">
+      <c r="F264" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="4">
+      <c r="G264" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="4">
+      <c r="H264" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="4">
+      <c r="I264" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7819,10 +7867,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="4" t="s">
+      <c r="J266" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7866,28 +7914,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="4">
+      <c r="A268" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="4">
+      <c r="B268" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="4">
+      <c r="C268" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="4">
+      <c r="E268" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="4">
+      <c r="F268" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="4">
+      <c r="G268" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="4">
+      <c r="H268" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7912,28 +7960,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="4">
+      <c r="B270" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="4">
+      <c r="C270" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="4">
+      <c r="D270" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="4">
+      <c r="E270" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="4">
+      <c r="F270" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="4">
+      <c r="G270" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="4">
+      <c r="H270" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="4">
+      <c r="I270" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7992,10 +8040,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="4" t="s">
+      <c r="J272" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8039,28 +8087,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="4">
+      <c r="A274" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="4">
+      <c r="B274" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="4">
+      <c r="C274" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="4">
+      <c r="E274" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="4">
+      <c r="F274" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="4">
+      <c r="G274" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="4">
+      <c r="H274" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8085,28 +8133,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="4">
+      <c r="B276" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="4">
+      <c r="C276" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="4">
+      <c r="D276" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="4">
+      <c r="E276" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="4">
+      <c r="F276" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="4">
+      <c r="G276" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="4">
+      <c r="H276" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="4">
+      <c r="I276" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8194,10 +8242,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="4" t="s">
+      <c r="J279" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8241,28 +8289,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="4">
+      <c r="A281" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="4">
+      <c r="B281" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="4">
+      <c r="C281" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="4">
+      <c r="E281" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="4">
+      <c r="F281" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="4">
+      <c r="G281" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="4">
+      <c r="H281" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8287,28 +8335,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="4">
+      <c r="B283" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="4">
+      <c r="C283" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="4">
+      <c r="D283" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="4">
+      <c r="E283" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="4">
+      <c r="F283" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="4">
+      <c r="G283" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="4">
+      <c r="H283" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="4">
+      <c r="I283" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8367,10 +8415,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="4" t="s">
+      <c r="J285" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8414,28 +8462,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="4">
+      <c r="A287" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="4">
+      <c r="B287" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="4">
+      <c r="C287" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="4">
+      <c r="E287" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="4">
+      <c r="F287" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="4">
+      <c r="G287" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="4">
+      <c r="H287" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8460,28 +8508,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="4">
+      <c r="B289" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="4">
+      <c r="C289" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="4">
+      <c r="D289" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="4">
+      <c r="E289" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="4">
+      <c r="F289" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="4">
+      <c r="G289" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="4">
+      <c r="H289" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="4">
+      <c r="I289" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8540,10 +8588,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="4" t="s">
+      <c r="J291" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8587,28 +8635,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="4">
+      <c r="A293" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="4">
+      <c r="B293" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="4">
+      <c r="C293" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="4">
+      <c r="E293" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="4">
+      <c r="F293" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="4">
+      <c r="G293" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="4">
+      <c r="H293" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8633,28 +8681,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="4">
+      <c r="B295" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="4">
+      <c r="C295" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="4">
+      <c r="D295" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="4">
+      <c r="E295" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="4">
+      <c r="F295" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="4">
+      <c r="G295" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="4">
+      <c r="H295" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="4">
+      <c r="I295" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8713,10 +8761,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="4" t="s">
+      <c r="J297" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8760,28 +8808,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="4">
+      <c r="A299" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="4">
+      <c r="B299" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="4">
+      <c r="C299" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="4">
+      <c r="E299" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="4">
+      <c r="F299" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="4">
+      <c r="G299" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="4">
+      <c r="H299" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8806,28 +8854,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="4">
+      <c r="B301" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="4">
+      <c r="C301" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="4">
+      <c r="D301" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="4">
+      <c r="E301" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="4">
+      <c r="F301" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="4">
+      <c r="G301" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="4">
+      <c r="H301" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="4">
+      <c r="I301" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8944,10 +8992,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="4" t="s">
+      <c r="J305" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8991,28 +9039,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="4">
+      <c r="A307" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="4">
+      <c r="B307" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="4">
+      <c r="C307" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="4">
+      <c r="E307" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="4">
+      <c r="F307" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="4">
+      <c r="G307" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="4">
+      <c r="H307" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9037,28 +9085,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="4">
+      <c r="B309" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="4">
+      <c r="C309" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="4">
+      <c r="D309" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="4">
+      <c r="E309" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="4">
+      <c r="F309" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="4">
+      <c r="G309" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="4">
+      <c r="H309" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="4">
+      <c r="I309" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9117,10 +9165,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="4" t="s">
+      <c r="J311" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9164,28 +9212,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="4">
+      <c r="A313" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="4">
+      <c r="B313" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="4">
+      <c r="C313" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="4">
+      <c r="E313" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="4">
+      <c r="F313" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="4">
+      <c r="G313" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="4">
+      <c r="H313" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9210,28 +9258,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="4">
+      <c r="B315" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="4">
+      <c r="C315" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="4">
+      <c r="D315" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="4">
+      <c r="E315" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="4">
+      <c r="F315" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="4">
+      <c r="G315" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="4">
+      <c r="H315" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="4">
+      <c r="I315" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9290,10 +9338,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="4" t="s">
+      <c r="J317" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9337,28 +9385,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="4">
+      <c r="A319" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="4">
+      <c r="B319" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="4">
+      <c r="C319" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="4">
+      <c r="E319" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="4">
+      <c r="F319" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="4">
+      <c r="G319" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="4">
+      <c r="H319" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9383,28 +9431,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="4">
+      <c r="B321" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="4">
+      <c r="C321" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="4">
+      <c r="D321" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="4">
+      <c r="E321" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="4">
+      <c r="F321" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="4">
+      <c r="G321" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="4">
+      <c r="H321" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="4">
+      <c r="I321" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9463,10 +9511,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="4" t="s">
+      <c r="J323" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9510,28 +9558,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="4">
+      <c r="A325" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="4">
+      <c r="B325" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="4">
+      <c r="C325" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="4">
+      <c r="E325" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="4">
+      <c r="F325" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="4">
+      <c r="G325" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="4">
+      <c r="H325" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9556,28 +9604,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="4">
+      <c r="B327" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="4">
+      <c r="C327" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="4">
+      <c r="D327" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="4">
+      <c r="E327" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="4">
+      <c r="F327" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="4">
+      <c r="G327" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="4">
+      <c r="H327" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="4">
+      <c r="I327" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9636,10 +9684,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="4" t="s">
+      <c r="J329" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9683,28 +9731,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="4">
+      <c r="A331" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="4">
+      <c r="B331" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="4">
+      <c r="C331" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="4">
+      <c r="E331" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="4">
+      <c r="F331" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="4">
+      <c r="G331" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="4">
+      <c r="H331" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9729,28 +9777,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="4">
+      <c r="B333" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="4">
+      <c r="C333" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="4">
+      <c r="D333" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="4">
+      <c r="E333" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="4">
+      <c r="F333" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="4">
+      <c r="G333" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="4">
+      <c r="H333" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="4">
+      <c r="I333" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9809,10 +9857,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="4" t="s">
+      <c r="J335" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9856,28 +9904,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="4">
+      <c r="A337" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="4">
+      <c r="B337" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="4">
+      <c r="C337" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="4">
+      <c r="E337" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="4">
+      <c r="F337" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="4">
+      <c r="G337" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="4">
+      <c r="H337" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9902,28 +9950,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="4">
+      <c r="B339" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="4">
+      <c r="C339" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="4">
+      <c r="D339" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="4">
+      <c r="E339" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="4">
+      <c r="F339" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="4">
+      <c r="G339" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="4">
+      <c r="H339" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="4">
+      <c r="I339" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10011,10 +10059,10 @@
       <c r="I342">
         <f>((C342-C341)^2+(D342- D341)^2)^.5</f>
       </c>
-      <c r="J342" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K342" s="4" t="s">
+      <c r="J342" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K342" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L342" t="n">
@@ -10058,28 +10106,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="s" s="4">
+      <c r="A344" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B344" t="s" s="4">
+      <c r="B344" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C344" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D344" t="s" s="4">
+      <c r="C344" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D344" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E344" t="s" s="4">
+      <c r="E344" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F344" t="s" s="4">
+      <c r="F344" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G344" t="s" s="4">
+      <c r="G344" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H344" t="s" s="4">
+      <c r="H344" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10104,28 +10152,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="B346" t="s" s="4">
+      <c r="B346" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C346" t="s" s="4">
+      <c r="C346" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D346" t="s" s="4">
+      <c r="D346" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E346" t="s" s="4">
+      <c r="E346" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F346" t="s" s="4">
+      <c r="F346" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G346" t="s" s="4">
+      <c r="G346" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H346" t="s" s="4">
+      <c r="H346" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I346" t="s" s="4">
+      <c r="I346" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10213,10 +10261,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="4" t="s">
+      <c r="J349" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10260,28 +10308,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="4">
+      <c r="A351" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="4">
+      <c r="B351" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="4">
+      <c r="C351" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="4">
+      <c r="E351" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="4">
+      <c r="F351" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="4">
+      <c r="G351" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="4">
+      <c r="H351" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10306,28 +10354,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="4">
+      <c r="B353" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="4">
+      <c r="C353" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="4">
+      <c r="D353" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="4">
+      <c r="E353" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="4">
+      <c r="F353" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="4">
+      <c r="G353" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="4">
+      <c r="H353" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="4">
+      <c r="I353" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10386,10 +10434,10 @@
       <c r="I355">
         <f>((C355-C354)^2+(D355- D354)^2)^.5</f>
       </c>
-      <c r="J355" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K355" s="4" t="s">
+      <c r="J355" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K355" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L355" t="n">
@@ -10433,28 +10481,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="s" s="4">
+      <c r="A357" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B357" t="s" s="4">
+      <c r="B357" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C357" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D357" t="s" s="4">
+      <c r="C357" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E357" t="s" s="4">
+      <c r="E357" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F357" t="s" s="4">
+      <c r="F357" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G357" t="s" s="4">
+      <c r="G357" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H357" t="s" s="4">
+      <c r="H357" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10479,28 +10527,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="B359" t="s" s="4">
+      <c r="B359" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C359" t="s" s="4">
+      <c r="C359" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D359" t="s" s="4">
+      <c r="D359" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E359" t="s" s="4">
+      <c r="E359" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F359" t="s" s="4">
+      <c r="F359" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G359" t="s" s="4">
+      <c r="G359" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H359" t="s" s="4">
+      <c r="H359" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I359" t="s" s="4">
+      <c r="I359" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10559,10 +10607,10 @@
       <c r="I361">
         <f>((C361-C360)^2+(D361- D360)^2)^.5</f>
       </c>
-      <c r="J361" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K361" s="4" t="s">
+      <c r="J361" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K361" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L361" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12288" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15144" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -508,10 +526,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="J11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -555,28 +573,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="12">
+      <c r="A13" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="12">
+      <c r="B13" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="12">
+      <c r="C13" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="12">
+      <c r="E13" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="12">
+      <c r="F13" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="12">
+      <c r="G13" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="12">
+      <c r="H13" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -601,28 +619,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="12">
+      <c r="B15" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="12">
+      <c r="C15" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="12">
+      <c r="D15" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="12">
+      <c r="E15" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="12">
+      <c r="F15" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="12">
+      <c r="G15" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="12">
+      <c r="H15" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="12">
+      <c r="I15" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -739,10 +757,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="12" t="s">
+      <c r="J19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -786,28 +804,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="12">
+      <c r="A21" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="12">
+      <c r="B21" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="12">
+      <c r="C21" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="12">
+      <c r="E21" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="12">
+      <c r="F21" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="12">
+      <c r="G21" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="12">
+      <c r="H21" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -832,28 +850,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="12">
+      <c r="B23" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="12">
+      <c r="C23" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="12">
+      <c r="D23" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="12">
+      <c r="E23" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="12">
+      <c r="F23" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="12">
+      <c r="G23" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="12">
+      <c r="H23" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="12">
+      <c r="I23" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -941,10 +959,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="12" t="s">
+      <c r="J26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -988,28 +1006,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="12">
+      <c r="A28" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="12">
+      <c r="B28" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="12">
+      <c r="C28" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="12">
+      <c r="E28" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="12">
+      <c r="F28" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="12">
+      <c r="G28" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="12">
+      <c r="H28" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1034,28 +1052,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="12">
+      <c r="B30" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="12">
+      <c r="C30" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="12">
+      <c r="D30" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="12">
+      <c r="E30" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="12">
+      <c r="F30" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="12">
+      <c r="G30" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="12">
+      <c r="H30" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="12">
+      <c r="I30" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1172,10 +1190,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="12" t="s">
+      <c r="J34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1219,28 +1237,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="12">
+      <c r="A36" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="12">
+      <c r="B36" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="12">
+      <c r="C36" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="12">
+      <c r="E36" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="12">
+      <c r="F36" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="12">
+      <c r="G36" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="12">
+      <c r="H36" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1265,28 +1283,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="12">
+      <c r="B38" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="12">
+      <c r="C38" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="12">
+      <c r="D38" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="12">
+      <c r="E38" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="12">
+      <c r="F38" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="12">
+      <c r="G38" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="12">
+      <c r="H38" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="12">
+      <c r="I38" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1374,10 +1392,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="12" t="s">
+      <c r="J41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1421,28 +1439,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="12">
+      <c r="A43" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="12">
+      <c r="B43" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="12">
+      <c r="C43" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="12">
+      <c r="E43" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="12">
+      <c r="F43" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="12">
+      <c r="G43" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="12">
+      <c r="H43" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1467,28 +1485,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="12">
+      <c r="B45" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="12">
+      <c r="C45" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="12">
+      <c r="D45" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="12">
+      <c r="E45" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="12">
+      <c r="F45" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="12">
+      <c r="G45" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="12">
+      <c r="H45" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="12">
+      <c r="I45" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1576,10 +1594,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="12" t="s">
+      <c r="J48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1623,28 +1641,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="12">
+      <c r="A50" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="12">
+      <c r="B50" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="12">
+      <c r="C50" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="12">
+      <c r="E50" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="12">
+      <c r="F50" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="12">
+      <c r="G50" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="12">
+      <c r="H50" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1669,28 +1687,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="12">
+      <c r="B52" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="12">
+      <c r="C52" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="12">
+      <c r="D52" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="12">
+      <c r="E52" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="12">
+      <c r="F52" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="12">
+      <c r="G52" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="12">
+      <c r="H52" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="12">
+      <c r="I52" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1807,10 +1825,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="12" t="s">
+      <c r="J56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1854,28 +1872,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="12">
+      <c r="A58" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="12">
+      <c r="B58" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="12">
+      <c r="C58" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="12">
+      <c r="E58" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="12">
+      <c r="F58" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="12">
+      <c r="G58" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="12">
+      <c r="H58" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1900,28 +1918,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="12">
+      <c r="B60" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="12">
+      <c r="C60" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="12">
+      <c r="D60" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="12">
+      <c r="E60" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="12">
+      <c r="F60" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="12">
+      <c r="G60" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="12">
+      <c r="H60" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="12">
+      <c r="I60" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2038,10 +2056,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="12" t="s">
+      <c r="J64" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2085,28 +2103,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="12">
+      <c r="A66" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="12">
+      <c r="B66" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="12">
+      <c r="C66" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="12">
+      <c r="E66" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="12">
+      <c r="F66" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="12">
+      <c r="G66" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="12">
+      <c r="H66" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2131,28 +2149,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="12">
+      <c r="B68" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="12">
+      <c r="C68" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="12">
+      <c r="D68" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="12">
+      <c r="E68" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="12">
+      <c r="F68" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="12">
+      <c r="G68" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="12">
+      <c r="H68" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="12">
+      <c r="I68" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2211,10 +2229,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="12" t="s">
+      <c r="J70" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2258,28 +2276,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="12">
+      <c r="A72" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="12">
+      <c r="B72" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="12">
+      <c r="C72" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="12">
+      <c r="E72" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="12">
+      <c r="F72" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="12">
+      <c r="G72" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="12">
+      <c r="H72" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2304,28 +2322,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="12">
+      <c r="B74" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="12">
+      <c r="C74" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="12">
+      <c r="D74" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="12">
+      <c r="E74" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="12">
+      <c r="F74" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="12">
+      <c r="G74" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="12">
+      <c r="H74" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="12">
+      <c r="I74" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2413,10 +2431,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="12" t="s">
+      <c r="J77" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2460,28 +2478,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="12">
+      <c r="A79" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="12">
+      <c r="B79" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="12">
+      <c r="C79" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="12">
+      <c r="E79" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="12">
+      <c r="F79" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="12">
+      <c r="G79" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="12">
+      <c r="H79" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2506,28 +2524,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="12">
+      <c r="B81" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="12">
+      <c r="C81" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="12">
+      <c r="D81" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="12">
+      <c r="E81" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="12">
+      <c r="F81" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="12">
+      <c r="G81" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="12">
+      <c r="H81" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="12">
+      <c r="I81" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2644,10 +2662,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="12" t="s">
+      <c r="J85" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2691,28 +2709,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="12">
+      <c r="A87" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="12">
+      <c r="B87" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="12">
+      <c r="C87" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="12">
+      <c r="E87" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="12">
+      <c r="F87" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="12">
+      <c r="G87" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="12">
+      <c r="H87" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2737,28 +2755,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="12">
+      <c r="C89" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="12">
+      <c r="D89" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="12">
+      <c r="I89" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2846,10 +2864,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="12" t="s">
+      <c r="J92" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2893,28 +2911,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="12">
+      <c r="A94" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="12">
+      <c r="B94" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="12">
+      <c r="C94" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="12">
+      <c r="E94" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="12">
+      <c r="F94" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="12">
+      <c r="G94" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="12">
+      <c r="H94" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2939,28 +2957,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="12">
+      <c r="B96" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="12">
+      <c r="C96" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="12">
+      <c r="D96" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="12">
+      <c r="E96" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="12">
+      <c r="F96" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="12">
+      <c r="G96" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="12">
+      <c r="H96" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="12">
+      <c r="I96" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3048,10 +3066,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="12" t="s">
+      <c r="J99" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3095,28 +3113,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="12">
+      <c r="A101" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="12">
+      <c r="B101" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="12">
+      <c r="C101" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="12">
+      <c r="E101" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="12">
+      <c r="F101" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="12">
+      <c r="G101" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="12">
+      <c r="H101" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3141,28 +3159,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="12">
+      <c r="B103" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="12">
+      <c r="C103" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="12">
+      <c r="D103" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="12">
+      <c r="E103" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="12">
+      <c r="F103" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="12">
+      <c r="G103" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="12">
+      <c r="H103" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="12">
+      <c r="I103" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3308,10 +3326,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="12" t="s">
+      <c r="J108" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3355,28 +3373,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="12">
+      <c r="A110" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="12">
+      <c r="B110" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="12">
+      <c r="C110" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="12">
+      <c r="E110" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="12">
+      <c r="F110" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="12">
+      <c r="G110" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="12">
+      <c r="H110" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3401,28 +3419,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="12">
+      <c r="B112" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="12">
+      <c r="C112" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="12">
+      <c r="D112" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="12">
+      <c r="E112" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="12">
+      <c r="F112" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="12">
+      <c r="G112" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="12">
+      <c r="H112" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="12">
+      <c r="I112" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3510,10 +3528,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="12" t="s">
+      <c r="J115" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3557,28 +3575,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="12">
+      <c r="A117" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="12">
+      <c r="B117" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="12">
+      <c r="C117" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="12">
+      <c r="E117" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="12">
+      <c r="F117" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="12">
+      <c r="G117" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="12">
+      <c r="H117" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3603,28 +3621,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="12">
+      <c r="C119" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="12">
+      <c r="D119" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="12">
+      <c r="F119" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="12">
+      <c r="I119" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3712,10 +3730,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="12" t="s">
+      <c r="J122" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3759,28 +3777,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="12">
+      <c r="A124" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="12">
+      <c r="B124" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="12">
+      <c r="C124" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="12">
+      <c r="E124" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="12">
+      <c r="F124" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="12">
+      <c r="G124" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="12">
+      <c r="H124" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3805,28 +3823,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="12">
+      <c r="B126" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="12">
+      <c r="C126" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="12">
+      <c r="D126" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="12">
+      <c r="E126" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="12">
+      <c r="F126" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="12">
+      <c r="G126" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="12">
+      <c r="H126" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="12">
+      <c r="I126" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3972,10 +3990,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="12" t="s">
+      <c r="J131" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -4019,28 +4037,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="12">
+      <c r="A133" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="12">
+      <c r="B133" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="12">
+      <c r="C133" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="12">
+      <c r="E133" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="12">
+      <c r="F133" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="12">
+      <c r="G133" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="12">
+      <c r="H133" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4065,28 +4083,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="12">
+      <c r="B135" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="12">
+      <c r="C135" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="12">
+      <c r="D135" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="12">
+      <c r="E135" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="12">
+      <c r="F135" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="12">
+      <c r="G135" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="12">
+      <c r="H135" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="12">
+      <c r="I135" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4145,10 +4163,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="12" t="s">
+      <c r="J137" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4192,28 +4210,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="12">
+      <c r="A139" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="12">
+      <c r="B139" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="12">
+      <c r="C139" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="12">
+      <c r="E139" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="12">
+      <c r="F139" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="12">
+      <c r="G139" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="12">
+      <c r="H139" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4238,28 +4256,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="12">
+      <c r="B141" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="12">
+      <c r="C141" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="12">
+      <c r="D141" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="12">
+      <c r="E141" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="12">
+      <c r="F141" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="12">
+      <c r="G141" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="12">
+      <c r="H141" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="12">
+      <c r="I141" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4434,10 +4452,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="12" t="s">
+      <c r="J147" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4481,28 +4499,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="12">
+      <c r="A149" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="12">
+      <c r="B149" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="12">
+      <c r="C149" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="12">
+      <c r="E149" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="12">
+      <c r="F149" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="12">
+      <c r="G149" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="12">
+      <c r="H149" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4527,28 +4545,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="12">
+      <c r="B151" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="12">
+      <c r="C151" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="12">
+      <c r="D151" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="12">
+      <c r="E151" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="12">
+      <c r="F151" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="12">
+      <c r="G151" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="12">
+      <c r="H151" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="12">
+      <c r="I151" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4636,10 +4654,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="12" t="s">
+      <c r="J154" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4683,28 +4701,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="12">
+      <c r="A156" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="12">
+      <c r="B156" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="12">
+      <c r="C156" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="12">
+      <c r="E156" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="12">
+      <c r="F156" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="12">
+      <c r="G156" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="12">
+      <c r="H156" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4729,28 +4747,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="12">
+      <c r="C158" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="12">
+      <c r="D158" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="12">
+      <c r="I158" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4838,10 +4856,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="12" t="s">
+      <c r="J161" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4885,28 +4903,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="12">
+      <c r="A163" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="12">
+      <c r="B163" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="12">
+      <c r="C163" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="12">
+      <c r="E163" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="12">
+      <c r="F163" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="12">
+      <c r="G163" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="12">
+      <c r="H163" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4931,28 +4949,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="12">
+      <c r="B165" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="12">
+      <c r="C165" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="12">
+      <c r="D165" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="12">
+      <c r="E165" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="12">
+      <c r="F165" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="12">
+      <c r="G165" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="12">
+      <c r="H165" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="12">
+      <c r="I165" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5040,10 +5058,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="12" t="s">
+      <c r="J168" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5087,28 +5105,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="12">
+      <c r="A170" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="12">
+      <c r="C170" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5133,28 +5151,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="12">
+      <c r="I172" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5213,10 +5231,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="12" t="s">
+      <c r="J174" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5260,28 +5278,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="12">
+      <c r="A176" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="12">
+      <c r="C176" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="12">
+      <c r="E176" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="12">
+      <c r="F176" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="12">
+      <c r="G176" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="12">
+      <c r="H176" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5306,28 +5324,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="12">
+      <c r="C178" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="12">
+      <c r="D178" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="12">
+      <c r="I178" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5386,10 +5404,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="12" t="s">
+      <c r="J180" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5433,28 +5451,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="12">
+      <c r="A182" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="12">
+      <c r="B182" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="12">
+      <c r="C182" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="12">
+      <c r="E182" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="12">
+      <c r="F182" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="12">
+      <c r="G182" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="12">
+      <c r="H182" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5479,28 +5497,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="12">
+      <c r="B184" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="12">
+      <c r="C184" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="12">
+      <c r="D184" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="12">
+      <c r="E184" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="12">
+      <c r="F184" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="12">
+      <c r="G184" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="12">
+      <c r="H184" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="12">
+      <c r="I184" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5559,10 +5577,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="12" t="s">
+      <c r="J186" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5606,28 +5624,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="12">
+      <c r="A188" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="12">
+      <c r="B188" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="12">
+      <c r="C188" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="12">
+      <c r="E188" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="12">
+      <c r="F188" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="12">
+      <c r="G188" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="12">
+      <c r="H188" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5652,28 +5670,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="12">
+      <c r="B190" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="12">
+      <c r="C190" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="12">
+      <c r="D190" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="12">
+      <c r="E190" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="12">
+      <c r="F190" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="12">
+      <c r="G190" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="12">
+      <c r="H190" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="12">
+      <c r="I190" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5790,10 +5808,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="12" t="s">
+      <c r="J194" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5837,28 +5855,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="12">
+      <c r="A196" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="12">
+      <c r="B196" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="12">
+      <c r="C196" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="12">
+      <c r="E196" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="12">
+      <c r="F196" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="12">
+      <c r="G196" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="12">
+      <c r="H196" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5883,28 +5901,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="12">
+      <c r="B198" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="12">
+      <c r="C198" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="12">
+      <c r="D198" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="12">
+      <c r="E198" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="12">
+      <c r="F198" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="12">
+      <c r="G198" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="12">
+      <c r="H198" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="12">
+      <c r="I198" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5992,10 +6010,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="12" t="s">
+      <c r="J201" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -6039,28 +6057,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="12">
+      <c r="A203" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="12">
+      <c r="B203" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="12">
+      <c r="C203" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="12">
+      <c r="E203" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="12">
+      <c r="F203" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="12">
+      <c r="G203" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="12">
+      <c r="H203" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6085,28 +6103,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="12">
+      <c r="B205" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="12">
+      <c r="C205" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="12">
+      <c r="D205" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="12">
+      <c r="E205" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="12">
+      <c r="F205" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="12">
+      <c r="G205" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="12">
+      <c r="H205" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="12">
+      <c r="I205" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6194,10 +6212,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="12" t="s">
+      <c r="J208" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6241,28 +6259,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="12">
+      <c r="A210" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="12">
+      <c r="B210" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="12">
+      <c r="C210" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="12">
+      <c r="E210" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="12">
+      <c r="F210" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="12">
+      <c r="G210" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="12">
+      <c r="H210" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6287,28 +6305,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="12">
+      <c r="B212" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="12">
+      <c r="C212" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="12">
+      <c r="D212" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="12">
+      <c r="E212" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="12">
+      <c r="F212" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="12">
+      <c r="G212" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="12">
+      <c r="H212" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="12">
+      <c r="I212" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6367,10 +6385,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="12" t="s">
+      <c r="J214" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6414,28 +6432,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="12">
+      <c r="A216" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="12">
+      <c r="B216" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="12">
+      <c r="C216" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="12">
+      <c r="E216" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="12">
+      <c r="F216" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="12">
+      <c r="G216" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="12">
+      <c r="H216" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6460,28 +6478,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="12">
+      <c r="B218" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="12">
+      <c r="C218" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="12">
+      <c r="D218" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="12">
+      <c r="E218" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="12">
+      <c r="F218" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="12">
+      <c r="G218" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="12">
+      <c r="H218" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="12">
+      <c r="I218" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6569,10 +6587,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="12" t="s">
+      <c r="J221" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6616,28 +6634,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="12">
+      <c r="A223" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="12">
+      <c r="B223" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="12">
+      <c r="C223" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="12">
+      <c r="E223" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="12">
+      <c r="F223" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="12">
+      <c r="G223" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="12">
+      <c r="H223" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6662,28 +6680,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="12">
+      <c r="B225" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="12">
+      <c r="C225" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="12">
+      <c r="D225" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="12">
+      <c r="E225" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="12">
+      <c r="F225" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="12">
+      <c r="G225" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="12">
+      <c r="H225" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="12">
+      <c r="I225" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6800,10 +6818,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="12" t="s">
+      <c r="J229" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6847,28 +6865,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="12">
+      <c r="A231" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="12">
+      <c r="B231" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="12">
+      <c r="C231" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="12">
+      <c r="E231" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="12">
+      <c r="F231" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="12">
+      <c r="G231" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="12">
+      <c r="H231" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6893,28 +6911,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="12">
+      <c r="B233" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="12">
+      <c r="C233" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="12">
+      <c r="D233" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="12">
+      <c r="E233" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="12">
+      <c r="F233" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="12">
+      <c r="G233" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="12">
+      <c r="H233" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="12">
+      <c r="I233" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6973,10 +6991,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="12" t="s">
+      <c r="J235" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -7020,28 +7038,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="12">
+      <c r="A237" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="12">
+      <c r="B237" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="12">
+      <c r="C237" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="12">
+      <c r="E237" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="12">
+      <c r="F237" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="12">
+      <c r="G237" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="12">
+      <c r="H237" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7066,28 +7084,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="12">
+      <c r="B239" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="12">
+      <c r="C239" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="12">
+      <c r="D239" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="12">
+      <c r="E239" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="12">
+      <c r="F239" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="12">
+      <c r="G239" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="12">
+      <c r="H239" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="12">
+      <c r="I239" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7175,10 +7193,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="12" t="s">
+      <c r="J242" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7222,28 +7240,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="12">
+      <c r="A244" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="12">
+      <c r="B244" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="12">
+      <c r="C244" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="12">
+      <c r="E244" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="12">
+      <c r="F244" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="12">
+      <c r="G244" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="12">
+      <c r="H244" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7268,28 +7286,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="12">
+      <c r="B246" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="12">
+      <c r="C246" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="12">
+      <c r="D246" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="12">
+      <c r="E246" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="12">
+      <c r="F246" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="12">
+      <c r="G246" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="12">
+      <c r="H246" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="12">
+      <c r="I246" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7348,10 +7366,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="12" t="s">
+      <c r="J248" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7395,28 +7413,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="12">
+      <c r="A250" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="12">
+      <c r="B250" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="12">
+      <c r="C250" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="12">
+      <c r="E250" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="12">
+      <c r="F250" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="12">
+      <c r="G250" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="12">
+      <c r="H250" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7441,28 +7459,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="12">
+      <c r="B252" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="12">
+      <c r="C252" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="12">
+      <c r="D252" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="12">
+      <c r="E252" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="12">
+      <c r="F252" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="12">
+      <c r="G252" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="12">
+      <c r="H252" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="12">
+      <c r="I252" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7521,10 +7539,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="12" t="s">
+      <c r="J254" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7568,28 +7586,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="12">
+      <c r="A256" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="12">
+      <c r="B256" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="12">
+      <c r="C256" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="12">
+      <c r="E256" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="12">
+      <c r="F256" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="12">
+      <c r="G256" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="12">
+      <c r="H256" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7614,28 +7632,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="12">
+      <c r="B258" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="12">
+      <c r="C258" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="12">
+      <c r="D258" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="12">
+      <c r="E258" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="12">
+      <c r="F258" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="12">
+      <c r="G258" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="12">
+      <c r="H258" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="12">
+      <c r="I258" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7694,10 +7712,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="12" t="s">
+      <c r="J260" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7741,28 +7759,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="12">
+      <c r="A262" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="12">
+      <c r="B262" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="12">
+      <c r="C262" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="12">
+      <c r="E262" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="12">
+      <c r="F262" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="12">
+      <c r="G262" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="12">
+      <c r="H262" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7787,28 +7805,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="12">
+      <c r="B264" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="12">
+      <c r="C264" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="12">
+      <c r="D264" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="12">
+      <c r="E264" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="12">
+      <c r="F264" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="12">
+      <c r="G264" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="12">
+      <c r="H264" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="12">
+      <c r="I264" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7867,10 +7885,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="12" t="s">
+      <c r="J266" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7914,28 +7932,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="12">
+      <c r="A268" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="12">
+      <c r="B268" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="12">
+      <c r="C268" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="12">
+      <c r="E268" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="12">
+      <c r="F268" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="12">
+      <c r="G268" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="12">
+      <c r="H268" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7960,28 +7978,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="12">
+      <c r="B270" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="12">
+      <c r="C270" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="12">
+      <c r="D270" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="12">
+      <c r="E270" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="12">
+      <c r="F270" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="12">
+      <c r="G270" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="12">
+      <c r="H270" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="12">
+      <c r="I270" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8040,10 +8058,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="12" t="s">
+      <c r="J272" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8087,28 +8105,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="12">
+      <c r="A274" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="12">
+      <c r="B274" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="12">
+      <c r="C274" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="12">
+      <c r="E274" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="12">
+      <c r="F274" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="12">
+      <c r="G274" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="12">
+      <c r="H274" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8133,28 +8151,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="12">
+      <c r="B276" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="12">
+      <c r="C276" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="12">
+      <c r="D276" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="12">
+      <c r="E276" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="12">
+      <c r="F276" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="12">
+      <c r="G276" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="12">
+      <c r="H276" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="12">
+      <c r="I276" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8242,10 +8260,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="12" t="s">
+      <c r="J279" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8289,28 +8307,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="12">
+      <c r="A281" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="12">
+      <c r="B281" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="12">
+      <c r="C281" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="12">
+      <c r="E281" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="12">
+      <c r="F281" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="12">
+      <c r="G281" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="12">
+      <c r="H281" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8335,28 +8353,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="12">
+      <c r="B283" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="12">
+      <c r="C283" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="12">
+      <c r="D283" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="12">
+      <c r="E283" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="12">
+      <c r="F283" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="12">
+      <c r="G283" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="12">
+      <c r="H283" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="12">
+      <c r="I283" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8415,10 +8433,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="12" t="s">
+      <c r="J285" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8462,28 +8480,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="12">
+      <c r="A287" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="12">
+      <c r="B287" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="12">
+      <c r="C287" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="12">
+      <c r="E287" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="12">
+      <c r="F287" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="12">
+      <c r="G287" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="12">
+      <c r="H287" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8508,28 +8526,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="12">
+      <c r="B289" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="12">
+      <c r="C289" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="12">
+      <c r="D289" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="12">
+      <c r="E289" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="12">
+      <c r="F289" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="12">
+      <c r="G289" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="12">
+      <c r="H289" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="12">
+      <c r="I289" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8588,10 +8606,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="12" t="s">
+      <c r="J291" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8635,28 +8653,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="12">
+      <c r="A293" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="12">
+      <c r="B293" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="12">
+      <c r="C293" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="12">
+      <c r="E293" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="12">
+      <c r="F293" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="12">
+      <c r="G293" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="12">
+      <c r="H293" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8681,28 +8699,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="12">
+      <c r="B295" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="12">
+      <c r="C295" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="12">
+      <c r="D295" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="12">
+      <c r="E295" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="12">
+      <c r="F295" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="12">
+      <c r="G295" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="12">
+      <c r="H295" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="12">
+      <c r="I295" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8761,10 +8779,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="12" t="s">
+      <c r="J297" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8808,28 +8826,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="12">
+      <c r="A299" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="12">
+      <c r="B299" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="12">
+      <c r="C299" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="12">
+      <c r="E299" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="12">
+      <c r="F299" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="12">
+      <c r="G299" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="12">
+      <c r="H299" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8854,28 +8872,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="12">
+      <c r="B301" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="12">
+      <c r="C301" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="12">
+      <c r="D301" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="12">
+      <c r="E301" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="12">
+      <c r="F301" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="12">
+      <c r="G301" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="12">
+      <c r="H301" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="12">
+      <c r="I301" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8992,10 +9010,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="12" t="s">
+      <c r="J305" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -9039,28 +9057,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="12">
+      <c r="A307" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="12">
+      <c r="B307" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="12">
+      <c r="C307" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="12">
+      <c r="E307" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="12">
+      <c r="F307" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="12">
+      <c r="G307" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="12">
+      <c r="H307" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9085,28 +9103,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="12">
+      <c r="B309" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="12">
+      <c r="C309" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="12">
+      <c r="D309" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="12">
+      <c r="E309" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="12">
+      <c r="F309" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="12">
+      <c r="G309" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="12">
+      <c r="H309" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="12">
+      <c r="I309" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9165,10 +9183,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="12" t="s">
+      <c r="J311" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9212,28 +9230,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="12">
+      <c r="A313" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="12">
+      <c r="B313" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="12">
+      <c r="C313" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="12">
+      <c r="E313" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="12">
+      <c r="F313" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="12">
+      <c r="G313" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="12">
+      <c r="H313" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9258,28 +9276,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="12">
+      <c r="B315" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="12">
+      <c r="C315" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="12">
+      <c r="D315" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="12">
+      <c r="E315" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="12">
+      <c r="F315" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="12">
+      <c r="G315" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="12">
+      <c r="H315" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="12">
+      <c r="I315" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9338,10 +9356,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="12" t="s">
+      <c r="J317" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9385,28 +9403,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="12">
+      <c r="A319" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="12">
+      <c r="B319" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="12">
+      <c r="C319" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="12">
+      <c r="E319" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="12">
+      <c r="F319" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="12">
+      <c r="G319" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="12">
+      <c r="H319" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9431,28 +9449,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="12">
+      <c r="B321" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="12">
+      <c r="C321" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="12">
+      <c r="D321" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="12">
+      <c r="E321" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="12">
+      <c r="F321" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="12">
+      <c r="G321" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="12">
+      <c r="H321" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="12">
+      <c r="I321" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9511,10 +9529,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="12" t="s">
+      <c r="J323" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9558,28 +9576,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="12">
+      <c r="A325" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="12">
+      <c r="B325" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="12">
+      <c r="C325" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="12">
+      <c r="E325" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="12">
+      <c r="F325" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="12">
+      <c r="G325" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="12">
+      <c r="H325" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9604,28 +9622,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="12">
+      <c r="B327" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="12">
+      <c r="C327" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="12">
+      <c r="D327" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="12">
+      <c r="E327" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="12">
+      <c r="F327" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="12">
+      <c r="G327" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="12">
+      <c r="H327" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="12">
+      <c r="I327" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9684,10 +9702,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="12" t="s">
+      <c r="J329" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9731,28 +9749,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="12">
+      <c r="A331" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="12">
+      <c r="B331" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="12">
+      <c r="C331" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="12">
+      <c r="E331" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="12">
+      <c r="F331" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="12">
+      <c r="G331" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="12">
+      <c r="H331" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9777,28 +9795,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="12">
+      <c r="B333" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="12">
+      <c r="C333" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="12">
+      <c r="D333" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="12">
+      <c r="E333" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="12">
+      <c r="F333" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="12">
+      <c r="G333" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="12">
+      <c r="H333" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="12">
+      <c r="I333" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9857,10 +9875,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="12" t="s">
+      <c r="J335" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9904,28 +9922,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="12">
+      <c r="A337" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="12">
+      <c r="B337" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="12">
+      <c r="C337" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="12">
+      <c r="E337" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="12">
+      <c r="F337" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="12">
+      <c r="G337" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="12">
+      <c r="H337" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9950,28 +9968,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="12">
+      <c r="B339" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="12">
+      <c r="C339" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="12">
+      <c r="D339" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="12">
+      <c r="E339" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="12">
+      <c r="F339" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="12">
+      <c r="G339" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="12">
+      <c r="H339" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="12">
+      <c r="I339" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10059,10 +10077,10 @@
       <c r="I342">
         <f>((C342-C341)^2+(D342- D341)^2)^.5</f>
       </c>
-      <c r="J342" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K342" s="12" t="s">
+      <c r="J342" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K342" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L342" t="n">
@@ -10106,28 +10124,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="s" s="12">
+      <c r="A344" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B344" t="s" s="12">
+      <c r="B344" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C344" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D344" t="s" s="12">
+      <c r="C344" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D344" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E344" t="s" s="12">
+      <c r="E344" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F344" t="s" s="12">
+      <c r="F344" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G344" t="s" s="12">
+      <c r="G344" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H344" t="s" s="12">
+      <c r="H344" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10152,28 +10170,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="B346" t="s" s="12">
+      <c r="B346" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C346" t="s" s="12">
+      <c r="C346" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D346" t="s" s="12">
+      <c r="D346" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E346" t="s" s="12">
+      <c r="E346" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F346" t="s" s="12">
+      <c r="F346" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G346" t="s" s="12">
+      <c r="G346" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H346" t="s" s="12">
+      <c r="H346" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I346" t="s" s="12">
+      <c r="I346" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10261,10 +10279,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="12" t="s">
+      <c r="J349" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10308,28 +10326,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="12">
+      <c r="A351" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="12">
+      <c r="B351" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="12">
+      <c r="C351" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="12">
+      <c r="E351" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="12">
+      <c r="F351" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="12">
+      <c r="G351" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="12">
+      <c r="H351" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10354,28 +10372,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="12">
+      <c r="B353" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="12">
+      <c r="C353" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="12">
+      <c r="D353" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="12">
+      <c r="E353" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="12">
+      <c r="F353" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="12">
+      <c r="G353" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="12">
+      <c r="H353" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="12">
+      <c r="I353" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10434,10 +10452,10 @@
       <c r="I355">
         <f>((C355-C354)^2+(D355- D354)^2)^.5</f>
       </c>
-      <c r="J355" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K355" s="12" t="s">
+      <c r="J355" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K355" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L355" t="n">
@@ -10481,28 +10499,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="s" s="12">
+      <c r="A357" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B357" t="s" s="12">
+      <c r="B357" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C357" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D357" t="s" s="12">
+      <c r="C357" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E357" t="s" s="12">
+      <c r="E357" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F357" t="s" s="12">
+      <c r="F357" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G357" t="s" s="12">
+      <c r="G357" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H357" t="s" s="12">
+      <c r="H357" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10527,28 +10545,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="B359" t="s" s="12">
+      <c r="B359" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C359" t="s" s="12">
+      <c r="C359" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D359" t="s" s="12">
+      <c r="D359" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E359" t="s" s="12">
+      <c r="E359" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F359" t="s" s="12">
+      <c r="F359" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G359" t="s" s="12">
+      <c r="G359" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H359" t="s" s="12">
+      <c r="H359" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I359" t="s" s="12">
+      <c r="I359" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10607,10 +10625,10 @@
       <c r="I361">
         <f>((C361-C360)^2+(D361- D360)^2)^.5</f>
       </c>
-      <c r="J361" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K361" s="12" t="s">
+      <c r="J361" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K361" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L361" t="n">
